--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -397,13 +397,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B1" t="str">
+        <v>0-100</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>5.75</v>
+      </c>
+      <c r="E1">
+        <v>5.6</v>
+      </c>
+      <c r="F1">
+        <v>5.5</v>
+      </c>
+      <c r="G1">
+        <v>5.3</v>
+      </c>
+      <c r="H1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B2" t="str">
+        <v>101-200</v>
+      </c>
+      <c r="C2">
+        <v>6.25</v>
+      </c>
+      <c r="D2">
+        <v>6.1</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>5.8</v>
+      </c>
+      <c r="G2">
+        <v>5.5</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B3" t="str">
+        <v>201-300</v>
+      </c>
+      <c r="C3">
+        <v>6.3</v>
+      </c>
+      <c r="D3">
+        <v>6.2</v>
+      </c>
+      <c r="E3">
+        <v>6.05</v>
+      </c>
+      <c r="F3">
+        <v>5.9</v>
+      </c>
+      <c r="G3">
+        <v>5.75</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B4" t="str">
+        <v>301-400</v>
+      </c>
+      <c r="C4">
+        <v>6.5</v>
+      </c>
+      <c r="D4">
+        <v>6.3</v>
+      </c>
+      <c r="E4">
+        <v>6.15</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>5.8</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B5" t="str">
+        <v>401-500</v>
+      </c>
+      <c r="C5">
+        <v>6.6</v>
+      </c>
+      <c r="D5">
+        <v>6.5</v>
+      </c>
+      <c r="E5">
+        <v>6.3</v>
+      </c>
+      <c r="F5">
+        <v>6.1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ABT</v>
+      </c>
+      <c r="B6" t="str">
+        <v>500+</v>
+      </c>
+      <c r="C6">
+        <v>6.75</v>
+      </c>
+      <c r="D6">
+        <v>6.6</v>
+      </c>
+      <c r="E6">
+        <v>6.4</v>
+      </c>
+      <c r="F6">
+        <v>6.25</v>
+      </c>
+      <c r="G6">
+        <v>6.1</v>
+      </c>
+      <c r="H6">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0-100</v>
+      </c>
+      <c r="C7">
+        <v>6.1</v>
+      </c>
+      <c r="D7">
+        <v>5.85</v>
+      </c>
+      <c r="E7">
+        <v>5.7</v>
+      </c>
+      <c r="F7">
+        <v>5.6</v>
+      </c>
+      <c r="G7">
+        <v>5.4</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B8" t="str">
+        <v>101-200</v>
+      </c>
+      <c r="C8">
+        <v>6.35</v>
+      </c>
+      <c r="D8">
+        <v>6.2</v>
+      </c>
+      <c r="E8">
+        <v>6.1</v>
+      </c>
+      <c r="F8">
+        <v>5.9</v>
+      </c>
+      <c r="G8">
+        <v>5.6</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B9" t="str">
+        <v>201-300</v>
+      </c>
+      <c r="C9">
+        <v>6.4</v>
+      </c>
+      <c r="D9">
+        <v>6.3</v>
+      </c>
+      <c r="E9">
+        <v>6.15</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5.85</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B10" t="str">
+        <v>301-400</v>
+      </c>
+      <c r="C10">
+        <v>6.6</v>
+      </c>
+      <c r="D10">
+        <v>6.4</v>
+      </c>
+      <c r="E10">
+        <v>6.25</v>
+      </c>
+      <c r="F10">
+        <v>6.1</v>
+      </c>
+      <c r="G10">
+        <v>5.9</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B11" t="str">
+        <v>401-500</v>
+      </c>
+      <c r="C11">
+        <v>6.7</v>
+      </c>
+      <c r="D11">
+        <v>6.6</v>
+      </c>
+      <c r="E11">
+        <v>6.4</v>
+      </c>
+      <c r="F11">
+        <v>6.2</v>
+      </c>
+      <c r="G11">
+        <v>6.1</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="B12" t="str">
+        <v>500+</v>
+      </c>
+      <c r="C12">
+        <v>6.85</v>
+      </c>
+      <c r="D12">
+        <v>6.7</v>
+      </c>
+      <c r="E12">
+        <v>6.5</v>
+      </c>
+      <c r="F12">
+        <v>6.35</v>
+      </c>
+      <c r="G12">
+        <v>6.2</v>
+      </c>
+      <c r="H12">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0-100</v>
+      </c>
+      <c r="C13">
+        <v>6.05</v>
+      </c>
+      <c r="D13">
+        <v>5.8</v>
+      </c>
+      <c r="E13">
+        <v>5.65</v>
+      </c>
+      <c r="F13">
+        <v>5.55</v>
+      </c>
+      <c r="G13">
+        <v>5.35</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B14" t="str">
+        <v>101-200</v>
+      </c>
+      <c r="C14">
+        <v>6.3</v>
+      </c>
+      <c r="D14">
+        <v>6.15</v>
+      </c>
+      <c r="E14">
+        <v>6.05</v>
+      </c>
+      <c r="F14">
+        <v>5.85</v>
+      </c>
+      <c r="G14">
+        <v>5.6</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B15" t="str">
+        <v>201-300</v>
+      </c>
+      <c r="C15">
+        <v>6.35</v>
+      </c>
+      <c r="D15">
+        <v>6.25</v>
+      </c>
+      <c r="E15">
+        <v>6.1</v>
+      </c>
+      <c r="F15">
+        <v>5.95</v>
+      </c>
+      <c r="G15">
+        <v>5.8</v>
+      </c>
+      <c r="H15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B16" t="str">
+        <v>301-400</v>
+      </c>
+      <c r="C16">
+        <v>6.55</v>
+      </c>
+      <c r="D16">
+        <v>6.35</v>
+      </c>
+      <c r="E16">
+        <v>6.2</v>
+      </c>
+      <c r="F16">
+        <v>6.05</v>
+      </c>
+      <c r="G16">
+        <v>5.85</v>
+      </c>
+      <c r="H16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B17" t="str">
+        <v>401-500</v>
+      </c>
+      <c r="C17">
+        <v>6.65</v>
+      </c>
+      <c r="D17">
+        <v>6.55</v>
+      </c>
+      <c r="E17">
+        <v>6.35</v>
+      </c>
+      <c r="F17">
+        <v>6.15</v>
+      </c>
+      <c r="G17">
+        <v>6.05</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>LMN</v>
+      </c>
+      <c r="B18" t="str">
+        <v>500+</v>
+      </c>
+      <c r="C18">
+        <v>6.8</v>
+      </c>
+      <c r="D18">
+        <v>6.65</v>
+      </c>
+      <c r="E18">
+        <v>6.45</v>
+      </c>
+      <c r="F18">
+        <v>6.3</v>
+      </c>
+      <c r="G18">
+        <v>6.15</v>
+      </c>
+      <c r="H18">
+        <v>60.06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0-100</v>
+      </c>
+      <c r="C19">
+        <v>6.2</v>
+      </c>
+      <c r="D19">
+        <v>5.95</v>
+      </c>
+      <c r="E19">
+        <v>5.8</v>
+      </c>
+      <c r="F19">
+        <v>5.7</v>
+      </c>
+      <c r="G19">
+        <v>5.5</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B20" t="str">
+        <v>101-200</v>
+      </c>
+      <c r="C20">
+        <v>6.45</v>
+      </c>
+      <c r="D20">
+        <v>6.3</v>
+      </c>
+      <c r="E20">
+        <v>6.2</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>5.7</v>
+      </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B21" t="str">
+        <v>201-300</v>
+      </c>
+      <c r="C21">
+        <v>6.5</v>
+      </c>
+      <c r="D21">
+        <v>6.4</v>
+      </c>
+      <c r="E21">
+        <v>6.25</v>
+      </c>
+      <c r="F21">
+        <v>6.1</v>
+      </c>
+      <c r="G21">
+        <v>5.95</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B22" t="str">
+        <v>301-400</v>
+      </c>
+      <c r="C22">
+        <v>6.7</v>
+      </c>
+      <c r="D22">
+        <v>6.5</v>
+      </c>
+      <c r="E22">
+        <v>6.35</v>
+      </c>
+      <c r="F22">
+        <v>6.2</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B23" t="str">
+        <v>401-500</v>
+      </c>
+      <c r="C23">
+        <v>6.8</v>
+      </c>
+      <c r="D23">
+        <v>6.7</v>
+      </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>6.3</v>
+      </c>
+      <c r="G23">
+        <v>6.2</v>
+      </c>
+      <c r="H23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>QRS</v>
+      </c>
+      <c r="B24" t="str">
+        <v>500+</v>
+      </c>
+      <c r="C24">
+        <v>6.95</v>
+      </c>
+      <c r="D24">
+        <v>6.8</v>
+      </c>
+      <c r="E24">
+        <v>6.6</v>
+      </c>
+      <c r="F24">
+        <v>6.45</v>
+      </c>
+      <c r="G24">
+        <v>6.3</v>
+      </c>
+      <c r="H24">
+        <v>48.12</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H24"/>
   </ignoredErrors>
 </worksheet>
 </file>